--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -746,19 +746,19 @@
         <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
@@ -773,13 +773,13 @@
         <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
         <v>2.18</v>
@@ -803,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE2" t="n">
         <v>12.5</v>
@@ -845,7 +845,7 @@
         <v>17.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
@@ -854,19 +854,19 @@
         <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU2" t="n">
         <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW2" t="n">
         <v>5.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -737,82 +737,82 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="n">
         <v>300</v>
@@ -821,31 +821,31 @@
         <v>11.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP2" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
@@ -854,25 +854,25 @@
         <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,6 +704,16 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -737,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -779,34 +789,34 @@
         <v>2.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>7.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE2" t="n">
         <v>11.5</v>
@@ -815,40 +825,40 @@
         <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="n">
         <v>200</v>
@@ -863,7 +873,7 @@
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AX2" t="n">
         <v>17.5</v>
@@ -875,10 +885,16 @@
         <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>200</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
         <v>2.77</v>
@@ -762,13 +762,13 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -783,40 +783,40 @@
         <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
         <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE2" t="n">
         <v>11.5</v>
@@ -825,46 +825,46 @@
         <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AO2" t="n">
         <v>11.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU2" t="n">
         <v>6.4</v>
@@ -873,22 +873,22 @@
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -747,31 +747,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>3.6</v>
@@ -795,25 +795,25 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.3</v>
@@ -828,28 +828,28 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>45</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -861,7 +861,7 @@
         <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT2" t="n">
         <v>2.82</v>
@@ -873,13 +873,13 @@
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -768,13 +768,13 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q2" t="n">
         <v>1.75</v>
@@ -789,10 +789,10 @@
         <v>2.82</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -813,7 +813,7 @@
         <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
         <v>6.3</v>
@@ -828,10 +828,10 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>4.25</v>
@@ -873,7 +873,7 @@
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -759,7 +759,7 @@
         <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -777,16 +777,16 @@
         <v>3.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="U2" t="n">
         <v>1.6</v>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -819,7 +819,7 @@
         <v>6.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -828,10 +828,10 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN2" t="n">
         <v>4.25</v>
@@ -855,16 +855,16 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU2" t="n">
         <v>6.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -756,10 +756,10 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -783,10 +783,10 @@
         <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U2" t="n">
         <v>1.6</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>16</v>
@@ -831,7 +831,7 @@
         <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -858,16 +858,16 @@
         <v>40</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="n">
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
@@ -876,16 +876,16 @@
         <v>5.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>90</v>
       </c>
       <c r="BA2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB2" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -750,25 +750,25 @@
         <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,28 +777,28 @@
         <v>3.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -810,16 +810,16 @@
         <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -831,7 +831,7 @@
         <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>30</v>
@@ -849,7 +849,7 @@
         <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -858,25 +858,25 @@
         <v>40</v>
       </c>
       <c r="AR2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -750,25 +750,25 @@
         <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,28 +777,28 @@
         <v>3.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
         <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -810,16 +810,16 @@
         <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -831,7 +831,7 @@
         <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -840,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
         <v>30</v>
@@ -849,22 +849,22 @@
         <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>40</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="n">
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU2" t="n">
         <v>6.4</v>
@@ -873,10 +873,10 @@
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -756,13 +756,13 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -783,34 +783,34 @@
         <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB2" t="n">
         <v>23</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
@@ -819,7 +819,7 @@
         <v>6.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -828,43 +828,43 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>10.75</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>45</v>
       </c>
       <c r="AL2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="n">
         <v>27</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>30</v>
       </c>
       <c r="AN2" t="n">
         <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU2" t="n">
         <v>6.4</v>
@@ -876,16 +876,16 @@
         <v>5.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB2" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L2" t="n">
         <v>3.65</v>
@@ -783,34 +783,34 @@
         <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
@@ -819,7 +819,7 @@
         <v>6.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -828,64 +828,64 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
         <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>45</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX2" t="n">
         <v>17.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
         <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB2" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -750,19 +750,19 @@
         <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,49 +777,49 @@
         <v>3.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -831,16 +831,16 @@
         <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -852,7 +852,7 @@
         <v>11.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>45</v>
@@ -864,25 +864,25 @@
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA2" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -750,10 +750,10 @@
         <v>2.22</v>
       </c>
       <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -762,7 +762,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>3.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>1.38</v>
@@ -789,10 +789,10 @@
         <v>2.82</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
         <v>9.25</v>
@@ -807,19 +807,19 @@
         <v>24</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -828,22 +828,22 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN2" t="n">
         <v>4.3</v>
@@ -852,7 +852,7 @@
         <v>11.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>45</v>
@@ -867,16 +867,16 @@
         <v>2.82</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-08.xlsx
@@ -747,91 +747,91 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W2" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X2" t="n">
         <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>10.75</v>
@@ -840,34 +840,34 @@
         <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="n">
         <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV2" t="n">
         <v>50</v>
@@ -876,13 +876,13 @@
         <v>5.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="n">
         <v>110</v>
